--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-174381.6659001513</v>
+        <v>-176970.276580015</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>166.8139404669117</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -677,7 +677,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>72.16717921356059</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +823,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>95.70216591605968</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>9.546882677482035</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>247.3775394329731</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>279.7713244424673</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>156.79021505687</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>38.94179913809693</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>130.6528593994773</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>270.756682444529</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>64.78150296772404</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>48.59540006302966</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671011865</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>140.3829797865003</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.31547498186427</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>53.08838020946272</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>192.9787615936014</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>105.8965430419528</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>118.8520688186515</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>155.0500112286387</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8965430419528</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>111.321323070213</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2956,19 +2956,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>14.75529838241474</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>40.36264995190464</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>42.5313457611381</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>119.2889395926984</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.8253826161915776</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.962173606588</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1733.111475321975</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C2" t="n">
-        <v>1364.148958381563</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1005.883259774813</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>1005.883259774813</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4325,7 +4325,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2364.743980306869</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>2364.743980306869</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583055</v>
+        <v>2011.975325036755</v>
       </c>
       <c r="X2" t="n">
-        <v>1733.111475321975</v>
+        <v>1638.509566775675</v>
       </c>
       <c r="Y2" t="n">
-        <v>1733.111475321975</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="3">
@@ -4383,61 +4383,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
         <v>2004.520742047138</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1716.924376094141</v>
+        <v>1590.995858314207</v>
       </c>
       <c r="C4" t="n">
-        <v>1547.988193166234</v>
+        <v>1422.059675386301</v>
       </c>
       <c r="D4" t="n">
-        <v>1397.871553753899</v>
+        <v>1271.943035973965</v>
       </c>
       <c r="E4" t="n">
-        <v>1397.871553753899</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.981606255988</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564267</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>977.1399948936617</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>2048.981932571482</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>2508.006390496683</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="S4" t="n">
-        <v>2459.755921915737</v>
+        <v>2459.755921915738</v>
       </c>
       <c r="T4" t="n">
-        <v>2236.777441110472</v>
+        <v>2363.087067455072</v>
       </c>
       <c r="U4" t="n">
-        <v>2236.777441110472</v>
+        <v>2363.087067455072</v>
       </c>
       <c r="V4" t="n">
-        <v>2236.777441110472</v>
+        <v>2108.402579249185</v>
       </c>
       <c r="W4" t="n">
-        <v>1947.360271073512</v>
+        <v>1818.985409212225</v>
       </c>
       <c r="X4" t="n">
-        <v>1937.716955237671</v>
+        <v>1590.995858314207</v>
       </c>
       <c r="Y4" t="n">
-        <v>1716.924376094141</v>
+        <v>1590.995858314207</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1081.071510755571</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C5" t="n">
-        <v>712.1089938151592</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>712.1089938151592</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>712.1089938151592</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>301.1230890255517</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056584</v>
+        <v>1692.716121379996</v>
       </c>
       <c r="X5" t="n">
-        <v>1857.810682795504</v>
+        <v>1692.716121379996</v>
       </c>
       <c r="Y5" t="n">
-        <v>1467.671350819693</v>
+        <v>1302.576789404184</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>143.6627691908469</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,16 +4677,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>612.1278795603956</v>
+        <v>344.3501774655452</v>
       </c>
       <c r="C7" t="n">
-        <v>453.7539249574967</v>
+        <v>344.3501774655452</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>344.3501774655452</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>196.4370838831521</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>196.4370838831521</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>196.4370838831521</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
@@ -4723,7 +4723,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4738,10 +4738,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4750,25 +4750,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>1021.765895288653</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W7" t="n">
-        <v>1021.765895288653</v>
+        <v>793.1323075070927</v>
       </c>
       <c r="X7" t="n">
-        <v>793.7763443906354</v>
+        <v>565.1427566090754</v>
       </c>
       <c r="Y7" t="n">
-        <v>793.7763443906354</v>
+        <v>344.3501774655452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1467.671350819694</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="C8" t="n">
-        <v>1098.708833879282</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>740.4431352725314</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>740.4431352725314</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795505</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819694</v>
+        <v>1380.34282005186</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.0311677684842</v>
+        <v>580.4218721597731</v>
       </c>
       <c r="C10" t="n">
-        <v>622.0949848405774</v>
+        <v>411.4856892318662</v>
       </c>
       <c r="D10" t="n">
-        <v>471.9783454282416</v>
+        <v>411.4856892318662</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>263.5725956494731</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>116.6826481515627</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U10" t="n">
-        <v>1021.765895288653</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V10" t="n">
-        <v>1021.765895288653</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="W10" t="n">
-        <v>972.679632598724</v>
+        <v>990.0598878880302</v>
       </c>
       <c r="X10" t="n">
-        <v>972.679632598724</v>
+        <v>762.0703369900128</v>
       </c>
       <c r="Y10" t="n">
-        <v>972.679632598724</v>
+        <v>762.0703369900128</v>
       </c>
     </row>
     <row r="11">
@@ -5033,37 +5033,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5130,10 @@
         <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
@@ -5364,16 +5364,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C16" t="n">
         <v>929.7309773356194</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.578742244367</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207406</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="17">
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
         <v>175.9033664000583</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,16 +5993,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>576.8388927589092</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2040.446372529346</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1751.371145873544</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.686657667657</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1207.269487630696</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400721</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121652</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6865,7 +6865,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570818</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2406.192730093489</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2223.337895748393</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2003.736430771334</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1714.661204115532</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X34" t="n">
-        <v>916.294644713842</v>
+        <v>942.5699949746665</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703119</v>
+        <v>721.7774158311364</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6926,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797191</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
         <v>484.8112968429803</v>
@@ -7327,55 +7327,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>114.3555089013344</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>199.7516311504069</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>30.36925650589448</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>240.0621052747998</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>167.9410363656056</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>278.2544041276958</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>40.64330621514426</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.2691783702305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>59.15888173023092</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>39.52450498097841</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>48.39475227997633</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>39.52450498097841</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>106.0841272570753</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6786642641544</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>26.01259675821702</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>138.4949402405065</v>
+        <v>3.329716221310008</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>60.54304058923888</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.54986409393007</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028986</v>
+        <v>274720.9666028987</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991062</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991063</v>
       </c>
-      <c r="D2" t="n">
-        <v>307890.6636991062</v>
-      </c>
       <c r="E2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="J2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.40260464529274e-10</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289266</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363183</v>
       </c>
     </row>
     <row r="4">
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82628.07418918468</v>
+        <v>82628.07418918458</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26436,28 +26436,28 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719625</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.36846171961</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719629</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481312</v>
+        <v>15498.22772481316</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26497,13 +26497,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1015596.663602051</v>
+        <v>-1015817.794916025</v>
       </c>
       <c r="C6" t="n">
+        <v>81839.02771251739</v>
+      </c>
+      <c r="D6" t="n">
         <v>81839.02771251724</v>
       </c>
-      <c r="D6" t="n">
-        <v>81839.02771251717</v>
-      </c>
       <c r="E6" t="n">
-        <v>-313435.3650264204</v>
+        <v>-313470.1029518564</v>
       </c>
       <c r="F6" t="n">
-        <v>194050.0765981254</v>
+        <v>194015.3386726897</v>
       </c>
       <c r="G6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726898</v>
       </c>
       <c r="H6" t="n">
-        <v>194050.0765981254</v>
+        <v>194015.3386726896</v>
       </c>
       <c r="I6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726896</v>
       </c>
       <c r="J6" t="n">
-        <v>26444.89878814286</v>
+        <v>26410.16086270713</v>
       </c>
       <c r="K6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726899</v>
       </c>
       <c r="L6" t="n">
-        <v>194050.0765981251</v>
+        <v>194015.3386726897</v>
       </c>
       <c r="M6" t="n">
-        <v>61442.78286919887</v>
+        <v>61408.04494376326</v>
       </c>
       <c r="N6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726898</v>
       </c>
       <c r="O6" t="n">
-        <v>194050.0765981255</v>
+        <v>194015.3386726899</v>
       </c>
       <c r="P6" t="n">
         <v>169800.6021267457</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26817,16 +26817,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>10.93703454929579</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>70.9865645897172</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.0465300811523</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>216.1627727115551</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>164.1701633399809</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>69.46964427494572</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>10.45660604175788</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>108.3097100170319</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>234.6200323715302</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>136.1193632971825</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>101.5250970770801</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>237.9275982735613</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-4.768638172255818e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203978</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>302.5540177178164</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>433.9798411722585</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,7 +33190,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
         <v>125.3175546292901</v>
@@ -33451,7 +33451,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,25 +33494,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,7 +33524,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796262</v>
@@ -33591,7 +33591,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>412.0358695391846</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>590.9487307432809</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>93.34947739681188</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>171.2123056344831</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>291.8458072502402</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -37063,31 +37063,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902405</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
         <v>264.332588409635</v>
@@ -37236,7 +37236,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
         <v>373.2618997060455</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
         <v>397.5465471980852</v>
